--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Iserror_Fx.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Iserror_Fx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SpreadSheet\master\calculation-engine\engine-demo\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet\CalculationEngine\calculation-engine\engine-tests\engine-it-graph\src\test\resources\standard_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,10 +21,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -344,7 +340,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -359,9 +355,9 @@
       <c r="C1">
         <v>7</v>
       </c>
-      <c r="D1" t="e">
+      <c r="D1">
         <f>SUM(C1,C2,D3)</f>
-        <v>#NAME?</v>
+        <v>93</v>
       </c>
       <c r="E1" t="e">
         <f>B2/B7</f>
@@ -382,9 +378,9 @@
         <f>SUM(#REF!,B2)</f>
         <v>#REF!</v>
       </c>
-      <c r="E2" t="e">
-        <f>SUM(A2:A5 B3:C3)</f>
-        <v>#NULL!</v>
+      <c r="E2">
+        <f>SUM(A2:A5)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -397,9 +393,9 @@
       <c r="C3">
         <v>989</v>
       </c>
-      <c r="D3" t="e">
-        <f>SUM(bfg,76)</f>
-        <v>#NAME?</v>
+      <c r="D3">
+        <f>SUM(A1,76)</f>
+        <v>81</v>
       </c>
       <c r="E3" t="e">
         <f>A1:D11</f>
@@ -443,13 +439,13 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="b">
         <f>ISERROR(D3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="b">
         <f>ISERROR(D1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -461,7 +457,7 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D11" t="b">
         <f>ISERROR(E2)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,13 +601,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FA32C2-4F64-40A9-95B4-F8993D25445A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FA32C2-4F64-40A9-95B4-F8993D25445A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A415AD81-EC1F-446E-B596-2448BC44637B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A415AD81-EC1F-446E-B596-2448BC44637B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21529790-6F67-4D90-A65C-DEFB0E6A473B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21529790-6F67-4D90-A65C-DEFB0E6A473B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Iserror_Fx.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Iserror_Fx.xlsx
@@ -355,9 +355,9 @@
       <c r="C1">
         <v>7</v>
       </c>
-      <c r="D1">
+      <c r="D1" t="e">
         <f>SUM(C1,C2,D3)</f>
-        <v>93</v>
+        <v>#NAME?</v>
       </c>
       <c r="E1" t="e">
         <f>B2/B7</f>
@@ -393,9 +393,9 @@
       <c r="C3">
         <v>989</v>
       </c>
-      <c r="D3">
-        <f>SUM(A1,76)</f>
-        <v>81</v>
+      <c r="D3" t="e">
+        <f>SUM(bfg,76)</f>
+        <v>#NAME?</v>
       </c>
       <c r="E3" t="e">
         <f>A1:D11</f>
@@ -439,13 +439,13 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D8" t="b">
         <f>ISERROR(D3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D9" t="b">
         <f>ISERROR(D1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -481,6 +481,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000BBA6CFB0E2DE4B9D0F8FC00657BC00" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5fa52e5d42efb553dd3c6ab2e94e30b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -594,12 +600,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FA32C2-4F64-40A9-95B4-F8993D25445A}">
   <ds:schemaRefs>
@@ -609,6 +609,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21529790-6F67-4D90-A65C-DEFB0E6A473B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A415AD81-EC1F-446E-B596-2448BC44637B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -622,13 +631,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21529790-6F67-4D90-A65C-DEFB0E6A473B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>